--- a/biology/Biochimie/Iridine/Iridine.xlsx
+++ b/biology/Biochimie/Iridine/Iridine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'iridine est un glucoside d'isoflavone (en particulier le 7-glucoside de l'irigénine) extrait communément de la racine d'iris[2], en particulier la variété d' iris germanica cultivée dite de Florence.
+L'iridine est un glucoside d'isoflavone (en particulier le 7-glucoside de l'irigénine) extrait communément de la racine d'iris, en particulier la variété d' iris germanica cultivée dite de Florence.
 Par un lent chauffage en milieu aqueux à base de soude, l'iridine se transforme en irétol (produit de dédoublement de l'iridine), acide iridique et acide formique. Par distillation de l'acide iridique, on obtient l'iridol.
-Cette molécule est toxique et l'iris peut causer des empoisonnements chez l'humain et l'animal[3].
+Cette molécule est toxique et l'iris peut causer des empoisonnements chez l'humain et l'animal.
 </t>
         </is>
       </c>
